--- a/scripts/meihead-parser/metadata.xlsx
+++ b/scripts/meihead-parser/metadata.xlsx
@@ -4261,7 +4261,7 @@
     <t>NJE 23.13</t>
   </si>
   <si>
-    <t>Per illud ave prolatum 🍄 Nunc mater exora natum 🍄 Benedicta es, celorum regina</t>
+    <t>Per illud ave prolatum 🍄 Benedicta es, celorum regina 🍄 Nunc mater exora natum</t>
   </si>
   <si>
     <t>6</t>
@@ -4354,7 +4354,7 @@
     <t>NJE 15.11</t>
   </si>
   <si>
-    <t>De profundis clamavi [low] 🍄 A custodia</t>
+    <t>A custodia 🍄 De profundis clamavi [low]</t>
   </si>
   <si>
     <t>4</t>
@@ -4666,7 +4666,7 @@
     <t>Petite camusette</t>
   </si>
   <si>
-    <t>Josquin des Prez 🍄 Le Brung 🍄 Willaert 🍄 Barbe</t>
+    <t>Le Brung 🍄 Barbe 🍄 Willaert 🍄 Josquin des Prez</t>
   </si>
   <si>
     <t>Will Watson 07/09/2011</t>
@@ -4828,7 +4828,7 @@
     <t>Je sey bien dire</t>
   </si>
   <si>
-    <t>Josquin des Prez 🍄 La Rue, Pierre de</t>
+    <t>La Rue, Pierre de 🍄 Josquin des Prez</t>
   </si>
   <si>
     <t>~1450-1521/08/27 🍄 ~1452///-1518/11/20/</t>
@@ -4903,7 +4903,7 @@
     <t>Plus n'estes ma maistresse</t>
   </si>
   <si>
-    <t>Bolkim 🍄 Josquin des Prez 🍄 Ockeghem</t>
+    <t>Bolkim 🍄 Ockeghem 🍄 Josquin des Prez</t>
   </si>
   <si>
     <t>2011/08/11</t>
@@ -4969,7 +4969,7 @@
     <t>Fortuna desperata</t>
   </si>
   <si>
-    <t>Josquin des Prez 🍄 Johannes Joye 🍄 Japart</t>
+    <t>Johannes Joye 🍄 Josquin des Prez 🍄 Japart</t>
   </si>
   <si>
     <t>[{"date": "2023-01-24T14:40:42", "applicationVersion": "3.15.0-dev-5260bd2-dirty", "applicationName": {"value": "Verovio"}, "note": "Transcoded from Humdrum"}]</t>
@@ -5167,7 +5167,7 @@
     <t>Il n'est plaisir</t>
   </si>
   <si>
-    <t>Josquin des Prez 🍄 Claudin 🍄 Gombert</t>
+    <t>Claudin 🍄 Gombert 🍄 Josquin des Prez</t>
   </si>
   <si>
     <t>2012/01/24</t>
@@ -5443,7 +5443,7 @@
     <t>Je me (Je [me] suis si trestourte)</t>
   </si>
   <si>
-    <t>Josquin des Prez 🍄 Le Brung</t>
+    <t>Le Brung 🍄 Josquin des Prez</t>
   </si>
   <si>
     <t>[{"date": "2023-01-24T21:51:54", "applicationVersion": "3.15.0-dev-5260bd2-dirty", "applicationName": {"value": "Verovio"}, "note": "Transcoded from Humdrum"}]</t>
@@ -5725,7 +5725,7 @@
     <t>Scaramella</t>
   </si>
   <si>
-    <t>Ninot le Petit 🍄 Josquin des Prez 🍄 Compere</t>
+    <t>Ninot le Petit 🍄 Compere 🍄 Josquin des Prez</t>
   </si>
   <si>
     <t>Will Watson 23/10/2011</t>

--- a/scripts/meihead-parser/metadata.xlsx
+++ b/scripts/meihead-parser/metadata.xlsx
@@ -4261,7 +4261,7 @@
     <t>NJE 23.13</t>
   </si>
   <si>
-    <t>Per illud ave prolatum 🍄 Benedicta es, celorum regina 🍄 Nunc mater exora natum</t>
+    <t>Benedicta es, celorum regina 🍄 Nunc mater exora natum 🍄 Per illud ave prolatum</t>
   </si>
   <si>
     <t>6</t>
@@ -4666,7 +4666,7 @@
     <t>Petite camusette</t>
   </si>
   <si>
-    <t>Le Brung 🍄 Barbe 🍄 Willaert 🍄 Josquin des Prez</t>
+    <t>Willaert 🍄 Barbe 🍄 Le Brung 🍄 Josquin des Prez</t>
   </si>
   <si>
     <t>Will Watson 07/09/2011</t>
@@ -4969,7 +4969,7 @@
     <t>Fortuna desperata</t>
   </si>
   <si>
-    <t>Johannes Joye 🍄 Josquin des Prez 🍄 Japart</t>
+    <t>Johannes Joye 🍄 Japart 🍄 Josquin des Prez</t>
   </si>
   <si>
     <t>[{"date": "2023-01-24T14:40:42", "applicationVersion": "3.15.0-dev-5260bd2-dirty", "applicationName": {"value": "Verovio"}, "note": "Transcoded from Humdrum"}]</t>
@@ -5725,7 +5725,7 @@
     <t>Scaramella</t>
   </si>
   <si>
-    <t>Ninot le Petit 🍄 Compere 🍄 Josquin des Prez</t>
+    <t>Compere 🍄 Ninot le Petit 🍄 Josquin des Prez</t>
   </si>
   <si>
     <t>Will Watson 23/10/2011</t>
@@ -5779,7 +5779,7 @@
     <t>NJE 27.34</t>
   </si>
   <si>
-    <t>Isaac 🍄 Agricola</t>
+    <t>Agricola 🍄 Isaac</t>
   </si>
   <si>
     <t>[{"date": "2023-01-24T20:13:03", "applicationVersion": "3.15.0-dev-5260bd2-dirty", "applicationName": {"value": "Verovio"}, "note": "Transcoded from Humdrum"}, {"applicationVersion": "1.0.3p", "applicationName": {"value": "mei-friend"}, "note": "First edit by mei-friend 1.0.3p, 1 November 2023."}]</t>
